--- a/data/trans_dic/P19E_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19E_R-Provincia-trans_dic.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>37,43; 50,06</t>
+          <t>37,72; 49,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>25,83; 36,91</t>
+          <t>26,36; 36,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,61; 26,53</t>
+          <t>17,02; 26,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>21,77; 29,8</t>
+          <t>21,79; 29,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>29,3; 36,88</t>
+          <t>28,99; 36,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,08; 32,06</t>
+          <t>24,98; 31,43</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>30,95; 39,85</t>
+          <t>31,01; 39,52</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>33,92; 44,41</t>
+          <t>34,18; 44,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>20,83; 28,75</t>
+          <t>20,36; 28,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21,69; 28,06</t>
+          <t>21,7; 27,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,72; 32,88</t>
+          <t>26,9; 33,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,62; 34,86</t>
+          <t>28,71; 34,55</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,02; 12,51</t>
+          <t>6,19; 12,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>34,63; 45,27</t>
+          <t>34,99; 45,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,91; 10,74</t>
+          <t>4,61; 10,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>22,58; 29,69</t>
+          <t>22,27; 29,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,12; 10,45</t>
+          <t>6,22; 10,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>29,07; 35,63</t>
+          <t>29,42; 35,77</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>36,54; 46,86</t>
+          <t>36,34; 46,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,57; 18,69</t>
+          <t>9,79; 19,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>20,97; 30,47</t>
+          <t>20,58; 30,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,41; 14,48</t>
+          <t>8,34; 14,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>29,69; 36,63</t>
+          <t>29,73; 36,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,77; 14,7</t>
+          <t>9,68; 15,12</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>31,53; 44,62</t>
+          <t>31,26; 44,21</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,68; 4,17</t>
+          <t>0,89; 4,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>22,68; 35,72</t>
+          <t>23,28; 35,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,12</t>
+          <t>0,92; 3,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>28,59; 37,71</t>
+          <t>28,84; 37,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,14; 3,14</t>
+          <t>1,15; 3,09</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>58,54; 70,19</t>
+          <t>58,5; 70,55</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>40,94; 51,62</t>
+          <t>40,34; 51,77</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>46,46; 58,54</t>
+          <t>46,5; 58,57</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>31,05; 39,97</t>
+          <t>31,27; 39,88</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>54,01; 62,6</t>
+          <t>54,53; 62,93</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>37,2; 44,62</t>
+          <t>37,52; 44,68</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1119,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>43,3; 51,83</t>
+          <t>42,96; 52,29</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>21,83; 29,74</t>
+          <t>22,18; 30,16</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>28,09; 35,6</t>
+          <t>28,52; 35,99</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,21; 12,65</t>
+          <t>5,7; 12,39</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>36,7; 42,26</t>
+          <t>36,74; 42,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>13,33; 19,56</t>
+          <t>12,75; 19,49</t>
         </is>
       </c>
     </row>
@@ -1199,32 +1199,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>14,93; 20,35</t>
+          <t>14,76; 20,2</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>9,44; 15,14</t>
+          <t>9,45; 14,98</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>11,12; 16,07</t>
+          <t>11,08; 16,03</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,52; 11,21</t>
+          <t>7,41; 10,95</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>13,65; 17,24</t>
+          <t>13,43; 16,99</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>9,27; 12,29</t>
+          <t>9,26; 12,45</t>
         </is>
       </c>
     </row>
@@ -1279,32 +1279,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>33,07; 36,4</t>
+          <t>33,07; 36,41</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>23,44; 26,92</t>
+          <t>23,57; 26,94</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>22,62; 25,47</t>
+          <t>22,31; 25,51</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>14,43; 17,21</t>
+          <t>14,42; 17,21</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>28,13; 30,36</t>
+          <t>28,11; 30,4</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>19,27; 21,5</t>
+          <t>19,12; 21,46</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19E_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19E_R-Provincia-trans_dic.xlsx
@@ -549,7 +549,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -639,7 +639,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>37,72; 49,69</t>
+          <t>37,85; 50,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,02; 26,63</t>
+          <t>16,54; 26,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>28,99; 36,65</t>
+          <t>28,94; 36,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -719,7 +719,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>31,01; 39,52</t>
+          <t>30,83; 40,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>20,36; 28,32</t>
+          <t>21,0; 28,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,9; 33,12</t>
+          <t>26,91; 32,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,19; 12,43</t>
+          <t>6,13; 12,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -809,7 +809,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,61; 10,4</t>
+          <t>4,85; 10,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,22; 10,27</t>
+          <t>6,07; 10,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>36,34; 46,88</t>
+          <t>35,61; 46,38</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>20,58; 30,15</t>
+          <t>20,79; 29,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>29,73; 36,56</t>
+          <t>29,61; 36,5</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -959,7 +959,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>31,26; 44,21</t>
+          <t>31,3; 44,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>23,28; 35,48</t>
+          <t>23,7; 35,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>28,84; 37,84</t>
+          <t>29,26; 38,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>58,5; 70,55</t>
+          <t>58,46; 70,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1049,7 +1049,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>46,5; 58,57</t>
+          <t>47,04; 59,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>54,53; 62,93</t>
+          <t>53,97; 62,59</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>42,96; 52,29</t>
+          <t>43,48; 51,78</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>28,52; 35,99</t>
+          <t>28,49; 35,91</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>36,74; 42,43</t>
+          <t>36,72; 42,82</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>14,76; 20,2</t>
+          <t>14,73; 19,98</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1209,7 +1209,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>11,08; 16,03</t>
+          <t>11,03; 15,94</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1219,7 +1219,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>13,43; 16,99</t>
+          <t>13,39; 16,95</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>33,07; 36,41</t>
+          <t>33,11; 36,46</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>22,31; 25,51</t>
+          <t>22,44; 25,43</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>28,11; 30,4</t>
+          <t>28,08; 30,4</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">

--- a/data/trans_dic/P19E_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19E_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>37,85; 50,51</t>
+          <t>37,43; 50,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>26,36; 36,82</t>
+          <t>25,83; 36,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,54; 26,27</t>
+          <t>16,61; 26,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>21,79; 29,29</t>
+          <t>21,77; 29,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>28,94; 36,89</t>
+          <t>29,3; 36,88</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,98; 31,43</t>
+          <t>25,08; 32,06</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>30,83; 40,06</t>
+          <t>30,95; 39,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>34,18; 44,57</t>
+          <t>33,92; 44,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>21,0; 28,96</t>
+          <t>20,83; 28,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21,7; 27,98</t>
+          <t>21,69; 28,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,91; 32,97</t>
+          <t>26,72; 32,88</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,71; 34,55</t>
+          <t>28,62; 34,86</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,13; 12,39</t>
+          <t>6,02; 12,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>34,99; 45,74</t>
+          <t>34,63; 45,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,85; 10,49</t>
+          <t>4,91; 10,74</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>22,27; 29,85</t>
+          <t>22,58; 29,69</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,07; 10,3</t>
+          <t>6,12; 10,45</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>29,42; 35,77</t>
+          <t>29,07; 35,63</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>35,61; 46,38</t>
+          <t>36,54; 46,86</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,79; 19,11</t>
+          <t>9,57; 18,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>20,79; 29,73</t>
+          <t>20,97; 30,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,34; 14,3</t>
+          <t>8,41; 14,48</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>29,61; 36,5</t>
+          <t>29,69; 36,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,68; 15,12</t>
+          <t>9,77; 14,7</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>31,3; 44,34</t>
+          <t>31,53; 44,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,89; 4,6</t>
+          <t>0,68; 4,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>23,7; 35,79</t>
+          <t>22,68; 35,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,92; 3,21</t>
+          <t>0,96; 3,12</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>29,26; 38,12</t>
+          <t>28,59; 37,71</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,15; 3,09</t>
+          <t>1,14; 3,14</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>58,46; 70,73</t>
+          <t>58,54; 70,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>40,34; 51,77</t>
+          <t>40,94; 51,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>47,04; 59,1</t>
+          <t>46,46; 58,54</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>31,27; 39,88</t>
+          <t>31,05; 39,97</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>53,97; 62,59</t>
+          <t>54,01; 62,6</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>37,52; 44,68</t>
+          <t>37,2; 44,62</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1119,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>43,48; 51,78</t>
+          <t>43,3; 51,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>22,18; 30,16</t>
+          <t>21,83; 29,74</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>28,49; 35,91</t>
+          <t>28,09; 35,6</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,7; 12,39</t>
+          <t>6,21; 12,65</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>36,72; 42,82</t>
+          <t>36,7; 42,26</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>12,75; 19,49</t>
+          <t>13,33; 19,56</t>
         </is>
       </c>
     </row>
@@ -1199,32 +1199,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>14,73; 19,98</t>
+          <t>14,93; 20,35</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>9,45; 14,98</t>
+          <t>9,44; 15,14</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>11,03; 15,94</t>
+          <t>11,12; 16,07</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,41; 10,95</t>
+          <t>7,52; 11,21</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>13,39; 16,95</t>
+          <t>13,65; 17,24</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>9,26; 12,45</t>
+          <t>9,27; 12,29</t>
         </is>
       </c>
     </row>
@@ -1279,32 +1279,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>33,11; 36,46</t>
+          <t>33,07; 36,4</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>23,57; 26,94</t>
+          <t>23,44; 26,92</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>22,44; 25,43</t>
+          <t>22,62; 25,47</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>14,42; 17,21</t>
+          <t>14,43; 17,21</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>28,08; 30,4</t>
+          <t>28,13; 30,36</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>19,12; 21,46</t>
+          <t>19,27; 21,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19E_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19E_R-Provincia-trans_dic.xlsx
@@ -606,7 +606,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>31,12%</t>
+          <t>29,32%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>25,49%</t>
+          <t>24,73%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -626,7 +626,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>28,25%</t>
+          <t>27,11%</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>25,83; 36,91</t>
+          <t>24,2; 35,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>21,77; 29,8</t>
+          <t>20,94; 29,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,08; 32,06</t>
+          <t>23,84; 30,89</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>39,19%</t>
+          <t>38,16%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>24,82%</t>
+          <t>24,65%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -706,7 +706,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>31,78%</t>
+          <t>31,44%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>33,92; 44,41</t>
+          <t>32,83; 43,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21,69; 28,06</t>
+          <t>21,57; 27,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,62; 34,86</t>
+          <t>28,19; 34,58</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>39,84%</t>
+          <t>39,32%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -776,7 +776,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>25,91%</t>
+          <t>25,76%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -786,7 +786,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>32,35%</t>
+          <t>32,19%</t>
         </is>
       </c>
     </row>
@@ -804,7 +804,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>34,63; 45,27</t>
+          <t>34,03; 44,79</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -814,7 +814,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>22,58; 29,69</t>
+          <t>22,41; 29,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>29,07; 35,63</t>
+          <t>28,86; 35,51</t>
         </is>
       </c>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13,51%</t>
+          <t>13,35%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,95%</t>
+          <t>9,16%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -866,7 +866,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>12,05%</t>
+          <t>10,82%</t>
         </is>
       </c>
     </row>
@@ -884,7 +884,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,57; 18,69</t>
+          <t>9,37; 18,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -894,7 +894,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,41; 14,48</t>
+          <t>5,47; 12,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,77; 14,7</t>
+          <t>7,38; 13,49</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -946,7 +946,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>1,94%</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,68; 4,17</t>
+          <t>0,73; 4,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -974,7 +974,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,12</t>
+          <t>0,97; 3,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -984,7 +984,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,14; 3,14</t>
+          <t>1,16; 3,17</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>46,04%</t>
+          <t>45,88%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1016,7 +1016,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>35,49%</t>
+          <t>35,62%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1026,7 +1026,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>40,77%</t>
+          <t>40,86%</t>
         </is>
       </c>
     </row>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>40,94; 51,62</t>
+          <t>40,59; 51,5</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1054,7 +1054,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>31,05; 39,97</t>
+          <t>31,19; 40,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>37,2; 44,62</t>
+          <t>37,25; 44,71</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>25,62%</t>
+          <t>25,89%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>10,02%</t>
+          <t>8,8%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>16,85%</t>
+          <t>16,03%</t>
         </is>
       </c>
     </row>
@@ -1124,7 +1124,7 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>21,83; 29,74</t>
+          <t>21,95; 30,54</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1134,7 +1134,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,21; 12,65</t>
+          <t>4,17; 12,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>13,33; 19,56</t>
+          <t>10,56; 19,64</t>
         </is>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>12,38%</t>
+          <t>9,77%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -1176,7 +1176,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>9,18%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1186,7 +1186,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>10,78%</t>
+          <t>9,51%</t>
         </is>
       </c>
     </row>
@@ -1204,7 +1204,7 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>9,44; 15,14</t>
+          <t>4,41; 13,99</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1214,7 +1214,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,52; 11,21</t>
+          <t>7,55; 11,05</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>9,27; 12,29</t>
+          <t>6,07; 11,69</t>
         </is>
       </c>
     </row>
@@ -1246,7 +1246,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>25,27%</t>
+          <t>24,13%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>16,11%</t>
+          <t>15,53%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>20,42%</t>
+          <t>19,71%</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>23,44; 26,92</t>
+          <t>18,46; 26,56</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
@@ -1294,7 +1294,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>14,43; 17,21</t>
+          <t>12,62; 16,92</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>19,27; 21,5</t>
+          <t>17,13; 21,31</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19E_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19E_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -591,7 +592,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -639,39 +640,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>37,43; 50,06</t>
+          <t>38,02; 49,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>24,2; 35,4</t>
+          <t>24,27; 35,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,61; 26,53</t>
+          <t>16,74; 26,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>20,94; 29,07</t>
+          <t>21,12; 28,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>29,3; 36,88</t>
+          <t>28,87; 36,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>23,84; 30,89</t>
+          <t>23,89; 30,48</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -719,39 +720,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>30,95; 39,85</t>
+          <t>31,0; 39,22</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>32,83; 43,71</t>
+          <t>32,93; 43,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>20,83; 28,75</t>
+          <t>20,68; 28,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21,57; 27,88</t>
+          <t>21,63; 27,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,72; 32,88</t>
+          <t>26,79; 32,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,19; 34,58</t>
+          <t>28,66; 34,59</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,02; 12,51</t>
+          <t>6,06; 12,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>34,03; 44,79</t>
+          <t>34,27; 44,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,91; 10,74</t>
+          <t>4,77; 10,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>22,41; 29,53</t>
+          <t>22,25; 29,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,12; 10,45</t>
+          <t>6,19; 10,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>28,86; 35,51</t>
+          <t>29,11; 35,57</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>36,54; 46,86</t>
+          <t>36,15; 46,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,37; 18,49</t>
+          <t>9,61; 18,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>20,97; 30,47</t>
+          <t>20,58; 29,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,47; 12,61</t>
+          <t>5,46; 12,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>29,69; 36,63</t>
+          <t>29,61; 36,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,38; 13,49</t>
+          <t>7,82; 13,42</t>
         </is>
       </c>
     </row>
@@ -959,39 +960,39 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>31,53; 44,62</t>
+          <t>31,37; 44,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,73; 4,19</t>
+          <t>0,78; 4,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>22,68; 35,72</t>
+          <t>22,75; 34,81</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,17</t>
+          <t>0,91; 3,25</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>28,59; 37,71</t>
+          <t>28,57; 37,6</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,16; 3,17</t>
+          <t>1,17; 3,12</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1039,39 +1040,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>58,54; 70,19</t>
+          <t>58,41; 69,91</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>40,59; 51,5</t>
+          <t>40,45; 51,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>46,46; 58,54</t>
+          <t>46,3; 58,77</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>31,19; 40,05</t>
+          <t>31,18; 40,78</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>54,01; 62,6</t>
+          <t>54,11; 62,58</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>37,25; 44,71</t>
+          <t>37,28; 44,29</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1119,32 +1120,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>43,3; 51,83</t>
+          <t>42,9; 51,78</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>21,95; 30,54</t>
+          <t>21,93; 30,36</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>28,09; 35,6</t>
+          <t>27,94; 35,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,17; 12,4</t>
+          <t>4,04; 12,34</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>36,7; 42,26</t>
+          <t>36,46; 42,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>10,56; 19,64</t>
+          <t>10,88; 19,9</t>
         </is>
       </c>
     </row>
@@ -1199,32 +1200,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>14,93; 20,35</t>
+          <t>14,88; 19,9</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,41; 13,99</t>
+          <t>4,13; 13,95</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>11,12; 16,07</t>
+          <t>11,01; 15,88</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,55; 11,05</t>
+          <t>7,58; 11,01</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>13,65; 17,24</t>
+          <t>13,39; 17,11</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>6,07; 11,69</t>
+          <t>5,87; 11,58</t>
         </is>
       </c>
     </row>
@@ -1279,32 +1280,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>33,07; 36,4</t>
+          <t>33,14; 36,55</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>18,46; 26,56</t>
+          <t>18,78; 26,57</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>22,62; 25,47</t>
+          <t>22,56; 25,24</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>12,62; 16,92</t>
+          <t>12,86; 16,97</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>28,13; 30,36</t>
+          <t>28,14; 30,32</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>17,13; 21,31</t>
+          <t>17,03; 21,28</t>
         </is>
       </c>
     </row>
@@ -1333,4 +1334,1190 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se cepilla los dientes una o ninguna vez al día</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>126835</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>91278</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>61022</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>71439</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>187857</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>162717</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>109355; 143544</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>75560; 109329</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>47585; 75544</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>60998; 83341</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>165127; 211128</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>143378; 182912</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>169739</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>197820</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>125119</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>126605</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>294858</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>324425</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>149713; 189425</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>170709; 224707</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>104734; 146046</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>111122; 143373</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>265064; 324352</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>295795; 356944</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>28168</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>122897</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>24014</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>89303</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>52182</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>212200</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>19035; 38175</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>107110; 140151</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>15883; 35445</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>77139; 103847</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>40015; 66421</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>191896; 234513</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>151924</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>40990</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>96923</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>42588</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>248847</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>83578</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>132637; 170821</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>29508; 57231</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>79296; 115367</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>25383; 57933</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>222707; 275342</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>60386; 103653</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>77698</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3685</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>62462</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>3806</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>140160</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>7491</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>64552; 91772</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1399; 8603</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>48895; 74809</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1884; 6760</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>120208; 158188</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>4512; 12058</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>169263</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>123364</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>143438</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>91559</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>312701</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>214922</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>153139; 183297</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>108758; 138237</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>126025; 159976</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>80149; 104830</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>289168; 334429</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>196079; 232966</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>291463</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>160658</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>203974</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>74418</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>495437</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>235077</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>262735; 317096</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>136054; 188376</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>178781; 227953</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>34175; 104374</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>456612; 531294</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>159603; 291819</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>132518</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>90668</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>109689</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>65597</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>242207</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>156265</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>113998; 152392</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>38344; 129517</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>90263; 130211</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>54247; 78777</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>212320; 271361</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>96415; 190373</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>1092</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>952</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>768</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>1020</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>1860</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>1972</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>1147607</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>831359</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>826642</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>565315</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>1974249</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>1396675</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>1092862; 1205256</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>647156; 915610</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>779455; 872098</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>468059; 617864</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>1900490; 2047522</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>1206988; 1507856</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>